--- a/July_absenty/July_2025_9-10_TRE_3_absenty.xlsx
+++ b/July_absenty/July_2025_9-10_TRE_3_absenty.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="14355" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="14355" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="May-25" sheetId="3" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="34">
   <si>
     <t>Office of DPO (Establishment), Gaya</t>
   </si>
@@ -178,6 +178,9 @@
   </si>
   <si>
     <t>SBIN0000079</t>
+  </si>
+  <si>
+    <t>16 days</t>
   </si>
 </sst>
 </file>
@@ -762,8 +765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1068,7 +1071,7 @@
         <v>24392.800000000003</v>
       </c>
       <c r="U6" s="13" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="V6" s="13" t="s">
         <v>27</v>
@@ -1988,7 +1991,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
